--- a/biology/Médecine/Richard_Fisch/Richard_Fisch.xlsx
+++ b/biology/Médecine/Richard_Fisch/Richard_Fisch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Fisch (dit aussi Dick Fisch), né le 15 décembre 1926 à Brooklyn, New York, et mort le 23 octobre 2011 à Redwood City, près de Palo Alto en Californie, est un psychiatre américain, pionnier de la thérapie familiale et de la thérapie brève et membre fondateur de l'École de Palo Alto.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1962, Dick Fisch rejoint l'équipe du Mental Research Institute (MRI) de Palo Alto, déjà composée de Donald D. Jackson, Virginia Satir, Jules Riskin, Paul Watzlawick, John Weakland et Jay Haley.
 En 1965, Dick Fisch fait part à Donald D. Jackson de sa volonté d’ouvrir le premier centre de thérapie brève (le CTB ou BTC en anglais) au sein du MRI. Grâce au financement que Donald D. Jackson réussit à trouver et grâce au travail qu’il mène en équipe avec Paul Watzlawick et John Weakland, le centre de thérapie brève ouvre ses portes en 1967. 
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec John Weakland et Paul Watzlawick, Changements : paradoxes et psychothérapie, Norton, 1974, (trad. Seuil, 1975)
 Avec John Weakland et Lynn Segal, Tactiques du changement, 1984
